--- a/decode.xlsx
+++ b/decode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Downloads\logisim\zack-v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Documents\GitHub\zack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E96F9D-F633-417D-95C0-B0A6F5C0A981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D7805-2A68-4791-8E00-121F98203A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{3301D62A-47FD-4827-A95A-572209CC4863}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="150">
   <si>
     <t>opcode</t>
   </si>
@@ -114,9 +114,6 @@
     <t>PUSH</t>
   </si>
   <si>
-    <t>POP</t>
-  </si>
-  <si>
     <t>0000 000</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>0100 011</t>
   </si>
   <si>
-    <t>Note: We can encode HLT as a jump to the current address, which will loop forever.</t>
-  </si>
-  <si>
     <t>regsel</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
   </si>
   <si>
     <t>3(+)</t>
-  </si>
-  <si>
-    <t>Impossible to change two registers at once: compile POP to LOAD then INC R7</t>
   </si>
   <si>
     <t>2(Y)</t>
@@ -882,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -926,15 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -999,16 +982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1017,13 +991,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,20 +1009,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,7 +1344,7 @@
   <dimension ref="B1:V58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V3"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1399,7 +1376,7 @@
     <row r="1" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4"/>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="12">
         <v>2</v>
@@ -1456,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="2:22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1466,59 +1443,59 @@
       <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="41" t="s">
+      <c r="L2" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="51" t="s">
-        <v>79</v>
+      <c r="U2" s="47" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:22" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -1526,7 +1503,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D3" s="16">
         <v>2</v>
@@ -1582,7 +1559,7 @@
       <c r="U3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="46"/>
+      <c r="V3" s="42"/>
     </row>
     <row r="4" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
@@ -1605,7 +1582,7 @@
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="46"/>
+      <c r="V4" s="42"/>
     </row>
     <row r="5" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
@@ -1628,7 +1605,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
-      <c r="V5" s="46"/>
+      <c r="V5" s="42"/>
     </row>
     <row r="6" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
@@ -1651,7 +1628,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="46"/>
+      <c r="V6" s="42"/>
     </row>
     <row r="7" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
@@ -1720,27 +1697,27 @@
       <c r="U9" s="8"/>
     </row>
     <row r="10" spans="2:22" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="46"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="42"/>
     </row>
     <row r="11" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
@@ -1763,11 +1740,11 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="46"/>
+      <c r="V11" s="42"/>
     </row>
     <row r="12" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -1786,11 +1763,11 @@
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
-      <c r="V12" s="46"/>
+      <c r="V12" s="42"/>
     </row>
     <row r="13" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1809,7 +1786,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="46"/>
+      <c r="V13" s="42"/>
     </row>
     <row r="14" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
@@ -2290,8 +2267,8 @@
       <c r="U36" s="8"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2312,8 +2289,8 @@
       <c r="U37" s="8"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -2334,8 +2311,8 @@
       <c r="U38" s="8"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -2356,8 +2333,8 @@
       <c r="U39" s="8"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="8"/>
       <c r="E40" s="21"/>
       <c r="F40" s="8"/>
@@ -2378,8 +2355,8 @@
       <c r="U40" s="8"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="8"/>
       <c r="E41" s="21"/>
       <c r="F41" s="8"/>
@@ -2400,8 +2377,8 @@
       <c r="U41" s="8"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="8"/>
       <c r="E42" s="21"/>
       <c r="F42" s="8"/>
@@ -2422,8 +2399,8 @@
       <c r="U42" s="8"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="8"/>
       <c r="E43" s="21"/>
       <c r="F43" s="8"/>
@@ -2444,8 +2421,8 @@
       <c r="U43" s="8"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="8"/>
       <c r="E44" s="21"/>
       <c r="F44" s="8"/>
@@ -2466,8 +2443,8 @@
       <c r="U44" s="8"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="8"/>
       <c r="E45" s="21"/>
       <c r="F45" s="8"/>
@@ -2488,8 +2465,8 @@
       <c r="U45" s="8"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="8"/>
       <c r="E46" s="21"/>
       <c r="F46" s="8"/>
@@ -2510,8 +2487,8 @@
       <c r="U46" s="8"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="8"/>
       <c r="E47" s="21"/>
       <c r="F47" s="8"/>
@@ -2532,8 +2509,8 @@
       <c r="U47" s="8"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="8"/>
       <c r="E48" s="21"/>
       <c r="F48" s="8"/>
@@ -2554,8 +2531,8 @@
       <c r="U48" s="8"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="8"/>
       <c r="E49" s="21"/>
       <c r="F49" s="8"/>
@@ -2576,8 +2553,8 @@
       <c r="U49" s="8"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -2598,28 +2575,28 @@
       <c r="U50" s="8"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B51" s="34"/>
+      <c r="B51" s="30"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B52" s="34"/>
+      <c r="B52" s="30"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B53" s="34"/>
+      <c r="B53" s="30"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B54" s="34"/>
+      <c r="B54" s="30"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B55" s="34"/>
+      <c r="B55" s="30"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B56" s="34"/>
+      <c r="B56" s="30"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B57" s="34"/>
+      <c r="B57" s="30"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B58" s="34"/>
+      <c r="B58" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2663,7 +2640,7 @@
     <row r="1" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4"/>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="12">
         <v>2</v>
@@ -2720,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="2:22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2730,347 +2707,347 @@
       <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="41" t="s">
+      <c r="L2" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="51" t="s">
-        <v>79</v>
+      <c r="U2" s="47" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:22" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="42" t="s">
-        <v>137</v>
+      <c r="B3" s="38" t="s">
+        <v>134</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="59">
+        <v>138</v>
+      </c>
+      <c r="D3" s="66">
         <v>2</v>
       </c>
-      <c r="E3" s="56">
-        <v>1</v>
-      </c>
-      <c r="F3" s="56">
-        <v>0</v>
-      </c>
-      <c r="G3" s="56">
-        <v>1</v>
-      </c>
-      <c r="H3" s="56">
-        <v>0</v>
-      </c>
-      <c r="I3" s="56">
-        <v>0</v>
-      </c>
-      <c r="J3" s="56">
-        <v>0</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="62" t="s">
+      <c r="E3" s="64">
+        <v>1</v>
+      </c>
+      <c r="F3" s="64">
+        <v>0</v>
+      </c>
+      <c r="G3" s="64">
+        <v>1</v>
+      </c>
+      <c r="H3" s="64">
+        <v>0</v>
+      </c>
+      <c r="I3" s="64">
+        <v>0</v>
+      </c>
+      <c r="J3" s="64">
+        <v>0</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="65" t="s">
         <v>17</v>
       </c>
       <c r="V3" s="18"/>
     </row>
     <row r="4" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="63"/>
+        <v>136</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="62"/>
       <c r="V4" s="18"/>
     </row>
     <row r="5" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="64"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="63"/>
       <c r="V5" s="18"/>
     </row>
     <row r="6" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="52">
         <v>2</v>
       </c>
-      <c r="E6" s="68">
-        <v>0</v>
-      </c>
-      <c r="F6" s="68">
-        <v>0</v>
-      </c>
-      <c r="G6" s="68">
-        <v>0</v>
-      </c>
-      <c r="H6" s="68">
-        <v>0</v>
-      </c>
-      <c r="I6" s="65">
-        <v>0</v>
-      </c>
-      <c r="J6" s="68">
-        <v>0</v>
-      </c>
-      <c r="K6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="V6" s="46"/>
+      <c r="E6" s="55">
+        <v>0</v>
+      </c>
+      <c r="F6" s="55">
+        <v>0</v>
+      </c>
+      <c r="G6" s="55">
+        <v>0</v>
+      </c>
+      <c r="H6" s="55">
+        <v>0</v>
+      </c>
+      <c r="I6" s="58">
+        <v>0</v>
+      </c>
+      <c r="J6" s="55">
+        <v>0</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="42"/>
     </row>
     <row r="7" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="63"/>
+      <c r="C7" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="63"/>
+        <v>141</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="63"/>
+      <c r="B9" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="62"/>
     </row>
     <row r="10" spans="2:22" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="46"/>
+        <v>143</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="42"/>
     </row>
     <row r="11" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
@@ -3087,17 +3064,17 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="49"/>
+      <c r="P11" s="45"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="46"/>
+      <c r="V11" s="42"/>
     </row>
     <row r="12" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -3116,11 +3093,11 @@
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
-      <c r="V12" s="46"/>
+      <c r="V12" s="42"/>
     </row>
     <row r="13" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -3139,7 +3116,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="46"/>
+      <c r="V13" s="42"/>
     </row>
     <row r="14" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
@@ -3620,8 +3597,8 @@
       <c r="U36" s="8"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -3642,8 +3619,8 @@
       <c r="U37" s="8"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -3664,8 +3641,8 @@
       <c r="U38" s="8"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -3686,8 +3663,8 @@
       <c r="U39" s="8"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="8"/>
       <c r="E40" s="21"/>
       <c r="F40" s="8"/>
@@ -3708,8 +3685,8 @@
       <c r="U40" s="8"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="8"/>
       <c r="E41" s="21"/>
       <c r="F41" s="8"/>
@@ -3730,8 +3707,8 @@
       <c r="U41" s="8"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="8"/>
       <c r="E42" s="21"/>
       <c r="F42" s="8"/>
@@ -3752,8 +3729,8 @@
       <c r="U42" s="8"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="8"/>
       <c r="E43" s="21"/>
       <c r="F43" s="8"/>
@@ -3774,8 +3751,8 @@
       <c r="U43" s="8"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="8"/>
       <c r="E44" s="21"/>
       <c r="F44" s="8"/>
@@ -3796,8 +3773,8 @@
       <c r="U44" s="8"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="8"/>
       <c r="E45" s="21"/>
       <c r="F45" s="8"/>
@@ -3818,8 +3795,8 @@
       <c r="U45" s="8"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="8"/>
       <c r="E46" s="21"/>
       <c r="F46" s="8"/>
@@ -3840,8 +3817,8 @@
       <c r="U46" s="8"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="8"/>
       <c r="E47" s="21"/>
       <c r="F47" s="8"/>
@@ -3862,8 +3839,8 @@
       <c r="U47" s="8"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="8"/>
       <c r="E48" s="21"/>
       <c r="F48" s="8"/>
@@ -3884,8 +3861,8 @@
       <c r="U48" s="8"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="8"/>
       <c r="E49" s="21"/>
       <c r="F49" s="8"/>
@@ -3906,8 +3883,8 @@
       <c r="U49" s="8"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -3928,36 +3905,49 @@
       <c r="U50" s="8"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B51" s="34"/>
+      <c r="B51" s="30"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B52" s="34"/>
+      <c r="B52" s="30"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B53" s="34"/>
+      <c r="B53" s="30"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B54" s="34"/>
+      <c r="B54" s="30"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B55" s="34"/>
+      <c r="B55" s="30"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B56" s="34"/>
+      <c r="B56" s="30"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B57" s="34"/>
+      <c r="B57" s="30"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B58" s="34"/>
+      <c r="B58" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="S6:S10"/>
     <mergeCell ref="T6:T10"/>
@@ -3971,24 +3961,11 @@
     <mergeCell ref="P6:P10"/>
     <mergeCell ref="Q6:Q10"/>
     <mergeCell ref="R6:R10"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="H6:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3998,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD657C5-558C-4081-A045-180CE424A48A}">
   <dimension ref="B1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4031,7 +4008,7 @@
     <row r="1" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4"/>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="12">
         <v>2</v>
@@ -4088,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="2:22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4098,64 +4075,64 @@
       <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="41" t="s">
+      <c r="L2" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="51" t="s">
-        <v>79</v>
+      <c r="U2" s="47" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:22" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>16</v>
@@ -4214,13 +4191,11 @@
       <c r="U3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="71" t="s">
-        <v>55</v>
-      </c>
+      <c r="V3" s="42"/>
     </row>
     <row r="4" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -4279,11 +4254,11 @@
       <c r="U4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="71"/>
+      <c r="V4" s="42"/>
     </row>
     <row r="5" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -4342,11 +4317,11 @@
       <c r="U5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="71"/>
+      <c r="V5" s="42"/>
     </row>
     <row r="6" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -4405,14 +4380,14 @@
       <c r="U6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="71"/>
+      <c r="V6" s="42"/>
     </row>
     <row r="7" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
@@ -4471,10 +4446,10 @@
     </row>
     <row r="8" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>17</v>
@@ -4525,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U8" s="7">
         <v>0</v>
@@ -4533,7 +4508,7 @@
     </row>
     <row r="9" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
@@ -4587,211 +4562,231 @@
         <v>1</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:22" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>0</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25">
-        <v>1</v>
-      </c>
-      <c r="M10" s="26">
-        <v>0</v>
-      </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="72" t="s">
-        <v>61</v>
-      </c>
+    <row r="10" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="13">
+        <v>0</v>
+      </c>
+      <c r="V10" s="18"/>
     </row>
     <row r="11" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="B11" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21">
+        <v>1</v>
+      </c>
+      <c r="J11" s="21">
         <v>2</v>
       </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
-      </c>
-      <c r="S11" s="9">
-        <v>0</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U11" s="13">
-        <v>0</v>
-      </c>
-      <c r="V11" s="72"/>
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="21">
+        <v>2</v>
+      </c>
+      <c r="M11" s="21">
+        <v>0</v>
+      </c>
+      <c r="N11" s="21">
+        <v>7</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>7</v>
+      </c>
+      <c r="R11" s="21">
+        <v>0</v>
+      </c>
+      <c r="S11" s="21">
+        <v>1</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" s="29">
+        <v>0</v>
+      </c>
+      <c r="V11" s="18"/>
     </row>
     <row r="12" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="32">
-        <v>1</v>
-      </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
-        <v>1</v>
-      </c>
-      <c r="I12" s="21">
-        <v>1</v>
-      </c>
-      <c r="J12" s="21">
+      <c r="B12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>3</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="8">
         <v>2</v>
       </c>
-      <c r="K12" s="21">
-        <v>0</v>
-      </c>
-      <c r="L12" s="21">
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="8">
+        <v>7</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>7</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" s="7">
+        <v>1</v>
+      </c>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
         <v>2</v>
       </c>
-      <c r="M12" s="21">
-        <v>0</v>
-      </c>
-      <c r="N12" s="21">
-        <v>7</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>7</v>
-      </c>
-      <c r="R12" s="21">
-        <v>0</v>
-      </c>
-      <c r="S12" s="21">
-        <v>1</v>
-      </c>
-      <c r="T12" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="U12" s="33">
-        <v>0</v>
-      </c>
-      <c r="V12" s="72"/>
-    </row>
-    <row r="13" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="8">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
-        <v>3</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>17</v>
+      <c r="K13" s="8">
+        <v>0</v>
       </c>
       <c r="L13" s="8">
         <v>2</v>
@@ -4799,11 +4794,11 @@
       <c r="M13" s="8">
         <v>0</v>
       </c>
-      <c r="N13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" s="8">
+      <c r="N13" s="8">
         <v>7</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="P13" s="8">
         <v>0</v>
@@ -4812,146 +4807,145 @@
         <v>7</v>
       </c>
       <c r="R13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U13" s="7">
-        <v>1</v>
-      </c>
-      <c r="V13" s="72"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <v>3</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="9">
+        <v>7</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="8">
         <v>2</v>
       </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>2</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>7</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>7</v>
-      </c>
-      <c r="R14" s="8">
-        <v>0</v>
-      </c>
-      <c r="S14" s="8">
-        <v>1</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>1</v>
-      </c>
-      <c r="J15" s="9">
-        <v>3</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="9">
-        <v>1</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="9">
-        <v>7</v>
-      </c>
-      <c r="P15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9" t="s">
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="9">
-        <v>0</v>
-      </c>
-      <c r="S15" s="9">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>17</v>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
@@ -4999,13 +4993,13 @@
         <v>12</v>
       </c>
       <c r="R16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U16" s="7">
         <v>1</v>
@@ -5061,10 +5055,10 @@
         <v>12</v>
       </c>
       <c r="R17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="8" t="s">
         <v>60</v>
@@ -5129,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U18" s="7">
         <v>1</v>
@@ -5191,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U19" s="7">
         <v>1</v>
@@ -5253,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U20" s="7">
         <v>1</v>
@@ -5315,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U21" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
@@ -5344,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>17</v>
@@ -5352,8 +5346,8 @@
       <c r="K22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="8">
-        <v>2</v>
+      <c r="L22" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="M22" s="12">
         <v>0</v>
@@ -5368,16 +5362,16 @@
         <v>0</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="U22" s="7">
         <v>1</v>
@@ -5388,7 +5382,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>17</v>
@@ -5406,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>17</v>
@@ -5414,8 +5408,8 @@
       <c r="K23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>17</v>
+      <c r="L23" s="8">
+        <v>2</v>
       </c>
       <c r="M23" s="12">
         <v>0</v>
@@ -5424,25 +5418,25 @@
         <v>8</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P23" s="8">
         <v>0</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="R23" s="8">
         <v>1</v>
       </c>
       <c r="S23" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.35">
@@ -5450,7 +5444,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>17</v>
@@ -5495,13 +5489,13 @@
         <v>12</v>
       </c>
       <c r="R24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U24" s="7">
         <v>0</v>
@@ -5512,7 +5506,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>17</v>
@@ -5545,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P25" s="8">
         <v>0</v>
@@ -5557,16 +5551,16 @@
         <v>12</v>
       </c>
       <c r="R25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="8">
         <v>1</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.35">
@@ -5574,7 +5568,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>17</v>
@@ -5607,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>10</v>
@@ -5619,13 +5613,13 @@
         <v>12</v>
       </c>
       <c r="R26" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="8">
         <v>1</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U26" s="7">
         <v>1</v>
@@ -5633,10 +5627,10 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>17</v>
@@ -5654,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>17</v>
@@ -5666,28 +5660,28 @@
         <v>2</v>
       </c>
       <c r="M27" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="P27" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R27" s="8">
         <v>0</v>
       </c>
       <c r="S27" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="U27" s="7">
         <v>1</v>
@@ -5695,10 +5689,10 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>17</v>
@@ -5716,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>17</v>
@@ -5740,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="R28" s="8">
         <v>0</v>
@@ -5749,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="U28" s="7">
         <v>1</v>
@@ -5757,10 +5751,10 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>17</v>
@@ -5786,20 +5780,20 @@
       <c r="K29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="21">
         <v>2</v>
       </c>
-      <c r="M29" s="12">
-        <v>1</v>
-      </c>
-      <c r="N29" s="8" t="s">
+      <c r="M29" s="8">
+        <v>1</v>
+      </c>
+      <c r="N29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="8">
-        <v>1</v>
+      <c r="P29" s="21">
+        <v>0</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>12</v>
@@ -5811,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U29" s="7">
         <v>1</v>
@@ -5819,10 +5813,10 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>17</v>
@@ -5851,7 +5845,7 @@
       <c r="L30" s="21">
         <v>2</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="21">
         <v>1</v>
       </c>
       <c r="N30" s="21" t="s">
@@ -5861,9 +5855,9 @@
         <v>10</v>
       </c>
       <c r="P30" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="21" t="s">
         <v>12</v>
       </c>
       <c r="R30" s="8">
@@ -5873,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="U30" s="7">
         <v>1</v>
@@ -5881,10 +5875,10 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>17</v>
@@ -5910,22 +5904,22 @@
       <c r="K31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="8">
         <v>2</v>
       </c>
-      <c r="M31" s="21">
-        <v>1</v>
-      </c>
-      <c r="N31" s="21" t="s">
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="21" t="s">
+      <c r="O31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P31" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="21" t="s">
+      <c r="P31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="8" t="s">
         <v>12</v>
       </c>
       <c r="R31" s="8">
@@ -5935,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="U31" s="7">
         <v>1</v>
@@ -5943,10 +5937,10 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>17</v>
@@ -5997,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U32" s="7">
         <v>1</v>
@@ -6005,10 +5999,10 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>17</v>
@@ -6034,22 +6028,22 @@
       <c r="K33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="21">
         <v>2</v>
       </c>
-      <c r="M33" s="12">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8" t="s">
+      <c r="M33" s="21">
+        <v>0</v>
+      </c>
+      <c r="N33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8" t="s">
+      <c r="P33" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="21" t="s">
         <v>12</v>
       </c>
       <c r="R33" s="8">
@@ -6058,8 +6052,8 @@
       <c r="S33" s="8">
         <v>0</v>
       </c>
-      <c r="T33" s="8" t="s">
-        <v>82</v>
+      <c r="T33" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="U33" s="7">
         <v>1</v>
@@ -6067,10 +6061,10 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>17</v>
@@ -6121,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U34" s="7">
         <v>1</v>
@@ -6129,10 +6123,10 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>17</v>
@@ -6183,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U35" s="7">
         <v>1</v>
@@ -6191,10 +6185,10 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>17</v>
@@ -6245,582 +6239,582 @@
         <v>0</v>
       </c>
       <c r="T36" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U36" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>1</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="21">
+      <c r="B37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="25">
         <v>2</v>
       </c>
-      <c r="M37" s="21">
-        <v>0</v>
-      </c>
-      <c r="N37" s="21" t="s">
+      <c r="M37" s="25">
+        <v>0</v>
+      </c>
+      <c r="N37" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="O37" s="21" t="s">
+      <c r="O37" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="P37" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="21" t="s">
+      <c r="P37" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="R37" s="8">
-        <v>0</v>
-      </c>
-      <c r="S37" s="8">
-        <v>0</v>
-      </c>
-      <c r="T37" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="U37" s="7">
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="U37" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9">
-        <v>1</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="29">
-        <v>2</v>
-      </c>
-      <c r="M38" s="29">
-        <v>0</v>
-      </c>
-      <c r="N38" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="O38" s="29" t="s">
+      <c r="B38" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0</v>
+      </c>
+      <c r="S38" s="8">
+        <v>0</v>
+      </c>
+      <c r="T38" s="8">
+        <v>0</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B39" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="8">
+        <v>0</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0</v>
+      </c>
+      <c r="S39" s="8">
+        <v>0</v>
+      </c>
+      <c r="T39" s="8">
+        <v>0</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B40" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
+      </c>
+      <c r="S40" s="8">
+        <v>0</v>
+      </c>
+      <c r="T40" s="8">
+        <v>0</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B41" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0</v>
+      </c>
+      <c r="S41" s="8">
+        <v>0</v>
+      </c>
+      <c r="T41" s="8">
+        <v>0</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B42" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0</v>
+      </c>
+      <c r="S42" s="8">
+        <v>0</v>
+      </c>
+      <c r="T42" s="8">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B43" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0</v>
+      </c>
+      <c r="T43" s="8">
+        <v>0</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B44" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0</v>
+      </c>
+      <c r="T44" s="8">
+        <v>0</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B45" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="21">
+        <v>1</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="8">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O45" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P38" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="R38" s="9">
-        <v>0</v>
-      </c>
-      <c r="S38" s="9">
-        <v>0</v>
-      </c>
-      <c r="T38" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="U38" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B39" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="8">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="8">
-        <v>0</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P39" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R39" s="8">
-        <v>0</v>
-      </c>
-      <c r="S39" s="8">
-        <v>0</v>
-      </c>
-      <c r="T39" s="8">
-        <v>0</v>
-      </c>
-      <c r="U39" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B40" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8">
-        <v>0</v>
-      </c>
-      <c r="I40" s="8">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="8">
-        <v>0</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P40" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R40" s="8">
-        <v>0</v>
-      </c>
-      <c r="S40" s="8">
-        <v>0</v>
-      </c>
-      <c r="T40" s="8">
-        <v>0</v>
-      </c>
-      <c r="U40" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B41" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="8">
-        <v>0</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P41" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R41" s="8">
-        <v>0</v>
-      </c>
-      <c r="S41" s="8">
-        <v>0</v>
-      </c>
-      <c r="T41" s="8">
-        <v>0</v>
-      </c>
-      <c r="U41" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B42" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="38" t="s">
+      <c r="P45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R45" s="8">
+        <v>0</v>
+      </c>
+      <c r="S45" s="8">
+        <v>0</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B46" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="8">
-        <v>1</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="8">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="8">
-        <v>0</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R42" s="8">
-        <v>0</v>
-      </c>
-      <c r="S42" s="8">
-        <v>0</v>
-      </c>
-      <c r="T42" s="8">
-        <v>0</v>
-      </c>
-      <c r="U42" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B43" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" s="8">
-        <v>0</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P43" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R43" s="8">
-        <v>0</v>
-      </c>
-      <c r="S43" s="8">
-        <v>0</v>
-      </c>
-      <c r="T43" s="8">
-        <v>0</v>
-      </c>
-      <c r="U43" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B44" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="38" t="s">
+      <c r="C46" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="8">
-        <v>1</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M44" s="8">
-        <v>0</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P44" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R44" s="8">
-        <v>0</v>
-      </c>
-      <c r="S44" s="8">
-        <v>0</v>
-      </c>
-      <c r="T44" s="8">
-        <v>0</v>
-      </c>
-      <c r="U44" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B45" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="8">
-        <v>1</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0</v>
-      </c>
-      <c r="H45" s="8">
-        <v>0</v>
-      </c>
-      <c r="I45" s="8">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M45" s="8">
-        <v>0</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P45" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R45" s="8">
-        <v>0</v>
-      </c>
-      <c r="S45" s="8">
-        <v>0</v>
-      </c>
-      <c r="T45" s="8">
-        <v>0</v>
-      </c>
-      <c r="U45" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B46" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>118</v>
-      </c>
       <c r="D46" s="8">
         <v>0</v>
       </c>
-      <c r="E46" s="21">
-        <v>1</v>
+      <c r="E46" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -6865,24 +6859,24 @@
         <v>0</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U46" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B47" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>119</v>
+      <c r="B47" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>117</v>
       </c>
       <c r="D47" s="8">
         <v>0</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F47" s="8">
         <v>0</v>
@@ -6927,24 +6921,24 @@
         <v>0</v>
       </c>
       <c r="T47" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U47" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B48" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>120</v>
+      <c r="B48" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="D48" s="8">
         <v>0</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F48" s="8">
         <v>0</v>
@@ -6989,24 +6983,24 @@
         <v>0</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U48" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B49" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>121</v>
+      <c r="B49" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="D49" s="8">
         <v>0</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F49" s="8">
         <v>0</v>
@@ -7051,24 +7045,24 @@
         <v>0</v>
       </c>
       <c r="T49" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U49" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B50" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="38" t="s">
+      <c r="B50" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="D50" s="8">
-        <v>0</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="F50" s="8">
         <v>0</v>
@@ -7113,159 +7107,93 @@
         <v>0</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U50" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B51" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" s="8">
-        <v>0</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8">
-        <v>0</v>
-      </c>
-      <c r="H51" s="8">
-        <v>0</v>
-      </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M51" s="8">
-        <v>0</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O51" s="8" t="s">
+      <c r="B51" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="9">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P51" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R51" s="8">
-        <v>0</v>
-      </c>
-      <c r="S51" s="8">
-        <v>0</v>
-      </c>
-      <c r="T51" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="U51" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B52" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="9">
-        <v>0</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" s="9">
-        <v>0</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M52" s="9">
-        <v>0</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P52" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R52" s="9">
-        <v>0</v>
-      </c>
-      <c r="S52" s="9">
-        <v>0</v>
-      </c>
-      <c r="T52" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U52" s="13">
+      <c r="P51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R51" s="9">
+        <v>0</v>
+      </c>
+      <c r="S51" s="9">
+        <v>0</v>
+      </c>
+      <c r="T51" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U51" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B53" s="34"/>
+      <c r="B53" s="30"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B54" s="34"/>
+      <c r="B54" s="30"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B55" s="34"/>
+      <c r="B55" s="30"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B56" s="34"/>
+      <c r="B56" s="30"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B57" s="34"/>
+      <c r="B57" s="30"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B58" s="34"/>
+      <c r="B58" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="V3:V6"/>
-    <mergeCell ref="V10:V13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7307,7 +7235,7 @@
       <c r="A1" s="2"/>
       <c r="B1" s="4"/>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="12">
         <v>2</v>
@@ -7364,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7375,132 +7303,132 @@
       <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="41" t="s">
+      <c r="L2" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="51" t="s">
-        <v>79</v>
+      <c r="U2" s="47" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="54">
-        <v>0</v>
-      </c>
-      <c r="E3" s="54">
-        <v>1</v>
-      </c>
-      <c r="F3" s="54">
-        <v>0</v>
-      </c>
-      <c r="G3" s="54">
-        <v>0</v>
-      </c>
-      <c r="H3" s="54">
-        <v>0</v>
-      </c>
-      <c r="I3" s="54">
-        <v>0</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="54">
-        <v>0</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="54" t="s">
+      <c r="B3" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="50">
+        <v>0</v>
+      </c>
+      <c r="E3" s="50">
+        <v>1</v>
+      </c>
+      <c r="F3" s="50">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50">
+        <v>0</v>
+      </c>
+      <c r="H3" s="50">
+        <v>0</v>
+      </c>
+      <c r="I3" s="50">
+        <v>0</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="50">
+        <v>0</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="54">
-        <v>0</v>
-      </c>
-      <c r="S3" s="54">
-        <v>0</v>
-      </c>
-      <c r="T3" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="55">
-        <v>1</v>
-      </c>
-      <c r="V3" s="46"/>
+      <c r="P3" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="50">
+        <v>0</v>
+      </c>
+      <c r="S3" s="50">
+        <v>0</v>
+      </c>
+      <c r="T3" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="51">
+        <v>1</v>
+      </c>
+      <c r="V3" s="42"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -7551,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U4" s="13">
         <v>0</v>
